--- a/data/trans_orig/DC_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>33334</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16981</v>
+        <v>18282</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57637</v>
+        <v>57364</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.08174173429919501</v>
+        <v>0.08174173429919503</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04164064940654064</v>
+        <v>0.04483112911131621</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.141339222261059</v>
+        <v>0.1406692098856527</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -762,19 +762,19 @@
         <v>90990</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69054</v>
+        <v>68539</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>114691</v>
+        <v>115505</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2509993603074555</v>
+        <v>0.2509993603074556</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1904886850132392</v>
+        <v>0.1890663685861294</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3163787203927502</v>
+        <v>0.3186235551552847</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -783,19 +783,19 @@
         <v>124324</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>97338</v>
+        <v>96391</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>159688</v>
+        <v>157491</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1613957846888348</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1263625348244652</v>
+        <v>0.1251339600677106</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2073043097109124</v>
+        <v>0.2044532094778092</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>374459</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>350156</v>
+        <v>350429</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>390812</v>
+        <v>389511</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.918258265700805</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8586607777389428</v>
+        <v>0.859330790114347</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9583593505934596</v>
+        <v>0.9551688708886834</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>159</v>
@@ -833,19 +833,19 @@
         <v>271522</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>247821</v>
+        <v>247007</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>293458</v>
+        <v>293973</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7490006396925444</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6836212796072499</v>
+        <v>0.6813764448447152</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8095113149867605</v>
+        <v>0.8109336314138701</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>319</v>
@@ -854,19 +854,19 @@
         <v>645981</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>610617</v>
+        <v>612814</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>672967</v>
+        <v>673914</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8386042153111654</v>
+        <v>0.8386042153111651</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7926956902890877</v>
+        <v>0.795546790522191</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8736374651755348</v>
+        <v>0.8748660399322894</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>51592</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36370</v>
+        <v>35042</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70106</v>
+        <v>70444</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1081834772762901</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07626394347902019</v>
+        <v>0.07347955444840439</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1470074700878569</v>
+        <v>0.1477159067838486</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>117</v>
@@ -979,19 +979,19 @@
         <v>129334</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>109348</v>
+        <v>108896</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>150107</v>
+        <v>149392</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2577736181577904</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.217941514216995</v>
+        <v>0.2170398075166396</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2991762424705015</v>
+        <v>0.2977525187421745</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>152</v>
@@ -1000,19 +1000,19 @@
         <v>180925</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>154822</v>
+        <v>154167</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>210663</v>
+        <v>207697</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1848772206846447</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1582034956794765</v>
+        <v>0.1575348434098926</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2152643616897929</v>
+        <v>0.2122335861196507</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>425298</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>406784</v>
+        <v>406446</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>440520</v>
+        <v>441848</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8918165227237098</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8529925299121431</v>
+        <v>0.8522840932161512</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9237360565209798</v>
+        <v>0.9265204455515957</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>344</v>
@@ -1050,19 +1050,19 @@
         <v>372399</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>351626</v>
+        <v>352341</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>392385</v>
+        <v>392837</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7422263818422095</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7008237575294987</v>
+        <v>0.7022474812578255</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.782058485783005</v>
+        <v>0.7829601924833605</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>611</v>
@@ -1071,19 +1071,19 @@
         <v>797698</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>767960</v>
+        <v>770926</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>823801</v>
+        <v>824456</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8151227793153553</v>
+        <v>0.8151227793153555</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7847356383102069</v>
+        <v>0.7877664138803495</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8417965043205234</v>
+        <v>0.8424651565901073</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>95548</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77609</v>
+        <v>77373</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116911</v>
+        <v>116614</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1539024139561509</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1250072265461057</v>
+        <v>0.1246268717465931</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1883124764753211</v>
+        <v>0.1878328965729841</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>272</v>
@@ -1196,19 +1196,19 @@
         <v>198565</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>179759</v>
+        <v>178877</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>219538</v>
+        <v>218390</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3186251498906507</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2884488805336272</v>
+        <v>0.2870336536413712</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3522786187816647</v>
+        <v>0.3504376171157136</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>358</v>
@@ -1217,19 +1217,19 @@
         <v>294113</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>266161</v>
+        <v>267950</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>319924</v>
+        <v>322409</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2364197487823167</v>
+        <v>0.2364197487823166</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2139507648667819</v>
+        <v>0.2153885890230538</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2571674664701281</v>
+        <v>0.2591651309506879</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>525289</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>503926</v>
+        <v>504223</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>543228</v>
+        <v>543464</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8460975860438491</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8116875235246788</v>
+        <v>0.812167103427016</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8749927734538947</v>
+        <v>0.8753731282534071</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>576</v>
@@ -1267,19 +1267,19 @@
         <v>424628</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>403655</v>
+        <v>404803</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>443434</v>
+        <v>444316</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6813748501093493</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6477213812183352</v>
+        <v>0.6495623828842864</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7115511194663729</v>
+        <v>0.7129663463586288</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1036</v>
@@ -1288,19 +1288,19 @@
         <v>949916</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>924105</v>
+        <v>921620</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>977868</v>
+        <v>976079</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7635802512176834</v>
+        <v>0.7635802512176831</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.742832533529872</v>
+        <v>0.7408348690493122</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7860492351332182</v>
+        <v>0.7846114109769462</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>174398</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>152747</v>
+        <v>150130</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>196676</v>
+        <v>198474</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.248921153827787</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2180183907928821</v>
+        <v>0.2142818777920509</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2807179283327514</v>
+        <v>0.2832840252311793</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>441</v>
@@ -1413,19 +1413,19 @@
         <v>286077</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>266028</v>
+        <v>265415</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>305738</v>
+        <v>306775</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3882248344462083</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3610160543026079</v>
+        <v>0.3601845292699464</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4149057490825912</v>
+        <v>0.416312373066591</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>608</v>
@@ -1434,19 +1434,19 @@
         <v>460476</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>429347</v>
+        <v>429467</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>492661</v>
+        <v>494299</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3203303585967356</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2986753780219597</v>
+        <v>0.2987587823631639</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3427200675449986</v>
+        <v>0.3438593546263824</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>526219</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>503941</v>
+        <v>502143</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>547870</v>
+        <v>550487</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7510788461722131</v>
+        <v>0.751078846172213</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7192820716672483</v>
+        <v>0.716715974768821</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.781981609207118</v>
+        <v>0.7857181222079495</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>700</v>
@@ -1484,19 +1484,19 @@
         <v>450809</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>431148</v>
+        <v>430111</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>470858</v>
+        <v>471471</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6117751655537917</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5850942509174087</v>
+        <v>0.5836876269334087</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6389839456973921</v>
+        <v>0.6398154707300536</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1198</v>
@@ -1505,19 +1505,19 @@
         <v>977028</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>944843</v>
+        <v>943205</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1008157</v>
+        <v>1008037</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6796696414032642</v>
+        <v>0.6796696414032644</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6572799324550014</v>
+        <v>0.6561406453736176</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7013246219780402</v>
+        <v>0.7012412176368362</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>184335</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>164176</v>
+        <v>164293</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>206198</v>
+        <v>205830</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3025127966638941</v>
+        <v>0.302512796663894</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2694306315388414</v>
+        <v>0.2696220716233099</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3383918414390026</v>
+        <v>0.3377884852958111</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>456</v>
@@ -1630,19 +1630,19 @@
         <v>281751</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>262179</v>
+        <v>261887</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>300225</v>
+        <v>298311</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4627562769566361</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4306091382200972</v>
+        <v>0.4301297658559975</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4930977854447293</v>
+        <v>0.4899547406636577</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>658</v>
@@ -1651,19 +1651,19 @@
         <v>466087</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>438110</v>
+        <v>435506</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>495041</v>
+        <v>495636</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3826022406371607</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3596366883718438</v>
+        <v>0.357498705438342</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4063700367521427</v>
+        <v>0.4068588566693619</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>425011</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>403148</v>
+        <v>403516</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>445170</v>
+        <v>445053</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6974872033361058</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6616081585609973</v>
+        <v>0.6622115147041887</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7305693684611585</v>
+        <v>0.7303779283766901</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>546</v>
@@ -1701,19 +1701,19 @@
         <v>327104</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>308630</v>
+        <v>310544</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>346676</v>
+        <v>346968</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5372437230433638</v>
+        <v>0.5372437230433639</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5069022145552711</v>
+        <v>0.5100452593363421</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5693908617799028</v>
+        <v>0.5698702341440021</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1007</v>
@@ -1722,19 +1722,19 @@
         <v>752115</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>723161</v>
+        <v>722566</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>780092</v>
+        <v>782696</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6173977593628392</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5936299632478571</v>
+        <v>0.5931411433306381</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6403633116281562</v>
+        <v>0.6425012945616578</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>129407</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>114275</v>
+        <v>113570</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>145951</v>
+        <v>144694</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3178911587399743</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2807192173145967</v>
+        <v>0.2789878600201388</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3585312173201528</v>
+        <v>0.3554434795691023</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>415</v>
@@ -1847,19 +1847,19 @@
         <v>227018</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>212012</v>
+        <v>210761</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>242654</v>
+        <v>241104</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5169302724014109</v>
+        <v>0.5169302724014108</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4827597721868004</v>
+        <v>0.4799115535613381</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5525325900860685</v>
+        <v>0.5490037604254541</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>600</v>
@@ -1868,19 +1868,19 @@
         <v>356425</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>334373</v>
+        <v>334321</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>379917</v>
+        <v>379330</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4211841223886797</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3951250835804704</v>
+        <v>0.3950639540561825</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4489438927458019</v>
+        <v>0.4482501073232624</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>277673</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261129</v>
+        <v>262386</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>292805</v>
+        <v>293510</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6821088412600257</v>
+        <v>0.6821088412600258</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6414687826798472</v>
+        <v>0.6445565204308977</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7192807826854035</v>
+        <v>0.721012139979861</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>412</v>
@@ -1918,19 +1918,19 @@
         <v>212148</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>196512</v>
+        <v>198062</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>227154</v>
+        <v>228405</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4830697275985892</v>
+        <v>0.4830697275985891</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4474674099139315</v>
+        <v>0.4509962395745459</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5172402278131996</v>
+        <v>0.520088446438662</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>797</v>
@@ -1939,19 +1939,19 @@
         <v>489821</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>466329</v>
+        <v>466916</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>511873</v>
+        <v>511925</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5788158776113204</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5510561072541977</v>
+        <v>0.5517498926767378</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6048749164195296</v>
+        <v>0.6049360459438177</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>140620</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>126084</v>
+        <v>126173</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>155954</v>
+        <v>155707</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4533241171828926</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4064627937060301</v>
+        <v>0.4067499766369408</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5027552458470292</v>
+        <v>0.5019595541136086</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>576</v>
@@ -2064,19 +2064,19 @@
         <v>301626</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>287574</v>
+        <v>285967</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>316966</v>
+        <v>315660</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6492047335297576</v>
+        <v>0.6492047335297575</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6189592899761381</v>
+        <v>0.6155012830917289</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6822216325179969</v>
+        <v>0.679409440837494</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>786</v>
@@ -2085,19 +2085,19 @@
         <v>442247</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>417828</v>
+        <v>420888</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>462075</v>
+        <v>463344</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5707828552805492</v>
+        <v>0.5707828552805491</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5392671817493646</v>
+        <v>0.5432167332646691</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5963744688397133</v>
+        <v>0.5980115327084521</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>169578</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>154244</v>
+        <v>154491</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>184114</v>
+        <v>184025</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5466758828171072</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4972447541529706</v>
+        <v>0.4980404458863924</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5935372062939699</v>
+        <v>0.5932500233630593</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>305</v>
@@ -2135,19 +2135,19 @@
         <v>162983</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>147643</v>
+        <v>148949</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>177035</v>
+        <v>178642</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3507952664702425</v>
+        <v>0.3507952664702424</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3177783674820027</v>
+        <v>0.3205905591625057</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3810407100238618</v>
+        <v>0.3844987169082708</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>553</v>
@@ -2156,19 +2156,19 @@
         <v>332560</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>312732</v>
+        <v>311463</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>356979</v>
+        <v>353919</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4292171447194508</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4036255311602868</v>
+        <v>0.4019884672915482</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4607328182506357</v>
+        <v>0.456783266735331</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>809235</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>756967</v>
+        <v>759378</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>864184</v>
+        <v>862506</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2290657065499866</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2142706609707715</v>
+        <v>0.2149531800210417</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2446200034379024</v>
+        <v>0.2441449508816937</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2325</v>
@@ -2281,19 +2281,19 @@
         <v>1515362</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1461847</v>
+        <v>1463876</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1564635</v>
+        <v>1565877</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4055073583044776</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3911867257992023</v>
+        <v>0.3917298650096089</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4186926124726777</v>
+        <v>0.4190250512978294</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3222</v>
@@ -2302,19 +2302,19 @@
         <v>2324597</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2247254</v>
+        <v>2244614</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2406696</v>
+        <v>2391816</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.3197644847210012</v>
+        <v>0.3197644847210011</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.309125408094979</v>
+        <v>0.3087622451267478</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3310578385513819</v>
+        <v>0.3290108820829493</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>2723527</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2668578</v>
+        <v>2670256</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2775795</v>
+        <v>2773384</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7709342934500135</v>
+        <v>0.7709342934500134</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7553799965620976</v>
+        <v>0.7558550491183061</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7857293390292286</v>
+        <v>0.7850468199789581</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3042</v>
@@ -2352,19 +2352,19 @@
         <v>2221592</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2172319</v>
+        <v>2171077</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2275107</v>
+        <v>2273078</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5944926416955223</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.581307387527322</v>
+        <v>0.5809749487021708</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6088132742007976</v>
+        <v>0.608270134990391</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5521</v>
@@ -2373,19 +2373,19 @@
         <v>4945119</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4863020</v>
+        <v>4877900</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5022462</v>
+        <v>5025102</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6802355152789988</v>
+        <v>0.6802355152789987</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.668942161448618</v>
+        <v>0.6709891179170506</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6908745919050211</v>
+        <v>0.6912377548732523</v>
       </c>
     </row>
     <row r="27">
